--- a/vertx-env/exec-toolkit/configuration/modulat/zero-erp/12300_AM_c7dd6c18-e668-4586-9ef2-7c101dcb8ef4.xlsx
+++ b/vertx-env/exec-toolkit/configuration/modulat/zero-erp/12300_AM_c7dd6c18-e668-4586-9ef2-7c101dcb8ef4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632A39DC-73F0-D348-9A77-409088748CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B988645-A299-EC47-B8CF-ACA0834B9889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-43940" yWindow="2280" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -714,7 +714,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
